--- a/RDM/Formulaire_Dimensionnement.xlsx
+++ b/RDM/Formulaire_Dimensionnement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PSI_ExercicesCompetences\RDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AA8373-FAEA-4F88-8C6A-F080B21E5B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FAC9AA-26DD-4AC5-ADE9-7054297C4EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Torsion" sheetId="1" r:id="rId1"/>
@@ -195,15 +195,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -479,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -491,7 +483,7 @@
     <col min="3" max="4" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
         <v>16</v>
@@ -500,7 +492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -512,7 +504,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -522,7 +514,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -534,7 +526,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -546,12 +538,12 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -564,7 +556,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -577,7 +569,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -589,7 +581,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -601,8 +593,12 @@
         <v>76923.076923076922</v>
       </c>
       <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <f>2000000/1.4</f>
+        <v>1428571.4285714286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -613,8 +609,12 @@
         <v>0.3</v>
       </c>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <f>1/7*1000000</f>
+        <v>142857.14285714284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -626,7 +626,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -639,7 +639,7 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -650,7 +650,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -662,7 +662,7 @@
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACC0796-6C0E-4B0D-AF44-E85A823EF69D}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
